--- a/AllTable_Relations.xlsx
+++ b/AllTable_Relations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
   <si>
     <t xml:space="preserve">FNAME</t>
   </si>
@@ -37,6 +37,12 @@
     <t xml:space="preserve">SECTION</t>
   </si>
   <si>
+    <t xml:space="preserve">Query:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query:2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pepe</t>
   </si>
   <si>
@@ -55,6 +61,12 @@
     <t xml:space="preserve">Strings</t>
   </si>
   <si>
+    <t xml:space="preserve">[('Lisa Simpson', 'Saxophone', 'Woodwinds'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[('Bassoon', 'Woodwinds'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Charlie</t>
   </si>
   <si>
@@ -70,6 +82,12 @@
     <t xml:space="preserve">Viola</t>
   </si>
   <si>
+    <t xml:space="preserve">('Yogi Bear', 'Banjo', 'Strings'), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">('Cello', 'Strings'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Bender</t>
   </si>
   <si>
@@ -82,6 +100,12 @@
     <t xml:space="preserve">Cello</t>
   </si>
   <si>
+    <t xml:space="preserve">('Ned Flanders', 'Clarinet', 'Woodwinds'), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">('Oboe', 'Woodwinds'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Goofy</t>
   </si>
   <si>
@@ -94,6 +118,12 @@
     <t xml:space="preserve">Bass</t>
   </si>
   <si>
+    <t xml:space="preserve">('Daffy Duck', 'Piano', 'Percussion'), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">('Trumpet', 'Brass'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ned</t>
   </si>
   <si>
@@ -109,6 +139,12 @@
     <t xml:space="preserve">Woodwinds</t>
   </si>
   <si>
+    <t xml:space="preserve">('Betty Boop', 'Piano', 'Percussion'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('Viola', 'Strings'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Charles Montgomery</t>
   </si>
   <si>
@@ -121,6 +157,12 @@
     <t xml:space="preserve">Oboe</t>
   </si>
   <si>
+    <t xml:space="preserve">('Snoopy', 'Bass', 'Strings'), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">('Violin', 'Strings')]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marvin</t>
   </si>
   <si>
@@ -133,6 +175,9 @@
     <t xml:space="preserve">Fat Albert</t>
   </si>
   <si>
+    <t xml:space="preserve">('Fat Albert', 'Accordian', 'Other'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">SpongeBob</t>
   </si>
   <si>
@@ -148,6 +193,12 @@
     <t xml:space="preserve">Bassoon</t>
   </si>
   <si>
+    <t xml:space="preserve">('Fred Flintstone', 'Singer', 'Other'), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query:3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shaggy</t>
   </si>
   <si>
@@ -160,6 +211,9 @@
     <t xml:space="preserve">Mickey Mouse</t>
   </si>
   <si>
+    <t xml:space="preserve">('Mickey Mouse', 'Whistle', 'Other'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Felix</t>
   </si>
   <si>
@@ -175,6 +229,9 @@
     <t xml:space="preserve">Brass</t>
   </si>
   <si>
+    <t xml:space="preserve">('Bugs Bunny', 'Singer', 'Other'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Yogi</t>
   </si>
   <si>
@@ -187,6 +244,9 @@
     <t xml:space="preserve">Trombone</t>
   </si>
   <si>
+    <t xml:space="preserve">('Bender', 'French Horn', 'Brass'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Bart</t>
   </si>
   <si>
@@ -199,6 +259,9 @@
     <t xml:space="preserve">Tuba</t>
   </si>
   <si>
+    <t xml:space="preserve">('Marvin Martian', 'Flute', 'Woodwinds'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Daffy</t>
   </si>
   <si>
@@ -211,6 +274,9 @@
     <t xml:space="preserve">Shaggy Rogers</t>
   </si>
   <si>
+    <t xml:space="preserve">('Shaggy Rogers', 'Harmonica', 'Other'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Stewie</t>
   </si>
   <si>
@@ -220,6 +286,9 @@
     <t xml:space="preserve">Percussion</t>
   </si>
   <si>
+    <t xml:space="preserve">('Betty Boop', 'Singer', 'Other'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">W. Seymour</t>
   </si>
   <si>
@@ -229,6 +298,9 @@
     <t xml:space="preserve">Homer Simpson</t>
   </si>
   <si>
+    <t xml:space="preserve">('Homer Simpson', 'Piano', 'Percussion'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Mighty</t>
   </si>
   <si>
@@ -238,6 +310,9 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
+    <t xml:space="preserve">('Homer Simpson', 'Singer', 'Other'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Fat</t>
   </si>
   <si>
@@ -247,16 +322,25 @@
     <t xml:space="preserve">Seymour Skinner</t>
   </si>
   <si>
+    <t xml:space="preserve">('Seymour Skinner', 'Trombone', 'Brass'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Lisa</t>
   </si>
   <si>
     <t xml:space="preserve">Bart Simpson</t>
   </si>
   <si>
+    <t xml:space="preserve">('Bart Simpson', 'Bass', 'Strings'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Betty</t>
   </si>
   <si>
     <t xml:space="preserve">Boop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('Snoopy', 'Tuba', 'Brass')]</t>
   </si>
   <si>
     <t xml:space="preserve">Fred</t>
@@ -290,11 +374,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -313,100 +398,26 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="9"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,48 +426,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -464,23 +439,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -504,38 +464,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,46 +486,33 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -594,7 +524,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -610,7 +540,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -637,17 +567,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,424 +606,508 @@
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="G7" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>28</v>
+      <c r="J9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>65</v>
+        <v>87</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>68</v>
+        <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>31</v>
+      <c r="E20" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/AllTable_Relations.xlsx
+++ b/AllTable_Relations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="125">
   <si>
     <t xml:space="preserve">FNAME</t>
   </si>
@@ -232,6 +232,9 @@
     <t xml:space="preserve">('Bugs Bunny', 'Singer', 'Other'), </t>
   </si>
   <si>
+    <t xml:space="preserve">('Betty Boop', 'Singer', 'Other'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Yogi</t>
   </si>
   <si>
@@ -262,6 +265,9 @@
     <t xml:space="preserve">('Marvin Martian', 'Flute', 'Woodwinds'), </t>
   </si>
   <si>
+    <t xml:space="preserve">('Snoopy', 'Tuba', 'Brass')]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daffy</t>
   </si>
   <si>
@@ -277,6 +283,9 @@
     <t xml:space="preserve">('Shaggy Rogers', 'Harmonica', 'Other'), </t>
   </si>
   <si>
+    <t xml:space="preserve">('Homer Simpson', 'Piano', 'Percussion'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Stewie</t>
   </si>
   <si>
@@ -286,7 +295,7 @@
     <t xml:space="preserve">Percussion</t>
   </si>
   <si>
-    <t xml:space="preserve">('Betty Boop', 'Singer', 'Other'), </t>
+    <t xml:space="preserve">('Homer Simpson', 'Singer', 'Other'), </t>
   </si>
   <si>
     <t xml:space="preserve">W. Seymour</t>
@@ -298,9 +307,6 @@
     <t xml:space="preserve">Homer Simpson</t>
   </si>
   <si>
-    <t xml:space="preserve">('Homer Simpson', 'Piano', 'Percussion'), </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mighty</t>
   </si>
   <si>
@@ -310,7 +316,7 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">('Homer Simpson', 'Singer', 'Other'), </t>
+    <t xml:space="preserve">Query:4</t>
   </si>
   <si>
     <t xml:space="preserve">Fat</t>
@@ -325,6 +331,9 @@
     <t xml:space="preserve">('Seymour Skinner', 'Trombone', 'Brass'), </t>
   </si>
   <si>
+    <t xml:space="preserve">[('Bass', 'Bart Simpson', 'Strings'),</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lisa</t>
   </si>
   <si>
@@ -334,13 +343,16 @@
     <t xml:space="preserve">('Bart Simpson', 'Bass', 'Strings'), </t>
   </si>
   <si>
+    <t xml:space="preserve">('Bass', 'Snoopy', 'Strings'),</t>
+  </si>
+  <si>
     <t xml:space="preserve">Betty</t>
   </si>
   <si>
     <t xml:space="preserve">Boop</t>
   </si>
   <si>
-    <t xml:space="preserve">('Snoopy', 'Tuba', 'Brass')]</t>
+    <t xml:space="preserve">('Piano', 'Betty Boop', 'Percussion'),</t>
   </si>
   <si>
     <t xml:space="preserve">Fred</t>
@@ -349,22 +361,40 @@
     <t xml:space="preserve">Flintstone</t>
   </si>
   <si>
+    <t xml:space="preserve">('Piano', 'Daffy Duck', 'Percussion'),</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mickey</t>
   </si>
   <si>
+    <t xml:space="preserve">('Piano', 'Homer Simpson', 'Percussion'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('Singer', 'Betty Boop', 'Other'),</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eric</t>
   </si>
   <si>
     <t xml:space="preserve">Cartman</t>
   </si>
   <si>
+    <t xml:space="preserve">('Singer', 'Bugs Bunny', 'Other'),</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bugs</t>
   </si>
   <si>
     <t xml:space="preserve">Bunny</t>
   </si>
   <si>
+    <t xml:space="preserve">('Singer', 'Fred Flintstone', 'Other'), </t>
+  </si>
+  <si>
     <t xml:space="preserve">Homer J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('Singer', 'Homer Simpson', 'Other')]</t>
   </si>
 </sst>
 </file>
@@ -417,18 +447,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -465,7 +489,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -486,10 +510,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -499,66 +519,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -569,8 +529,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -721,7 +681,7 @@
       <c r="D6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="0" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
@@ -747,7 +707,7 @@
       <c r="D7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="0" t="s">
@@ -834,6 +794,9 @@
       <c r="J10" s="0" t="s">
         <v>63</v>
       </c>
+      <c r="K10" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -857,111 +820,126 @@
       <c r="J11" s="0" t="s">
         <v>69</v>
       </c>
+      <c r="K11" s="0" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>68</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="0" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>91</v>
+      <c r="E16" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>17</v>
@@ -970,144 +948,174 @@
         <v>12</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>91</v>
+      <c r="E17" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>49</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>61</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>106</v>
+        <v>81</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K23" s="0" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/AllTable_Relations.xlsx
+++ b/AllTable_Relations.xlsx
@@ -64,7 +64,32 @@
     <t xml:space="preserve">[('Lisa Simpson', 'Saxophone', 'Woodwinds'),</t>
   </si>
   <si>
-    <t xml:space="preserve">[('Bassoon', 'Woodwinds'), </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'Brass', </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'Trumpet'), </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Charlie</t>
@@ -85,7 +110,32 @@
     <t xml:space="preserve">('Yogi Bear', 'Banjo', 'Strings'), </t>
   </si>
   <si>
-    <t xml:space="preserve">('Cello', 'Strings'), </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">('Strings',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'Cello'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Bender</t>
@@ -103,7 +153,32 @@
     <t xml:space="preserve">('Ned Flanders', 'Clarinet', 'Woodwinds'), </t>
   </si>
   <si>
-    <t xml:space="preserve">('Oboe', 'Woodwinds'), </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'Strings', </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'Viola'), </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Goofy</t>
@@ -121,7 +196,32 @@
     <t xml:space="preserve">('Daffy Duck', 'Piano', 'Percussion'), </t>
   </si>
   <si>
-    <t xml:space="preserve">('Trumpet', 'Brass'), </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'Strings', </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'Violin'),</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ned</t>
@@ -142,7 +242,32 @@
     <t xml:space="preserve">('Betty Boop', 'Piano', 'Percussion'),</t>
   </si>
   <si>
-    <t xml:space="preserve">('Viola', 'Strings'), </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">('Woodwinds',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'Bassoon'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Charles Montgomery</t>
@@ -160,7 +285,32 @@
     <t xml:space="preserve">('Snoopy', 'Bass', 'Strings'), </t>
   </si>
   <si>
-    <t xml:space="preserve">('Violin', 'Strings')]</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'Woodwinds', </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'Oboe')]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Marvin</t>
@@ -404,7 +554,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -445,6 +595,11 @@
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -529,8 +684,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -538,9 +693,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.28"/>
